--- a/槽和模版_shihuaxing.xlsx
+++ b/槽和模版_shihuaxing.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E0C9BA85-7AE4-46B3-96EA-DA606649E610}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADD1D69F-4C0D-4055-80EB-DF5263D5E2FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="289">
   <si>
     <t>细分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>购物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>签证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,18 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,12 +136,6 @@
   </si>
   <si>
     <t>通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间
-地点
-项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,15 +360,6 @@
 区域
 目的
 人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点
-物品
-价格
-商店
-位置
-特殊要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,13 +390,6 @@
 安全
 房间
 住宿时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地点
-国家
-地区
-附近服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,12 +547,783 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>比较(必备槽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员
+时间
+地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位的大分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位小分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_food</t>
+  </si>
+  <si>
+    <t>f_restaurant</t>
+  </si>
+  <si>
+    <t>食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_category</t>
+  </si>
+  <si>
+    <t>g_clothes</t>
+  </si>
+  <si>
+    <t>g_clothes_material</t>
+  </si>
+  <si>
+    <t>g_goods</t>
+  </si>
+  <si>
+    <t>g_cameras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel_category</t>
+  </si>
+  <si>
+    <t>h_bed_type</t>
+  </si>
+  <si>
+    <t>h_fun_place</t>
+  </si>
+  <si>
+    <t>h_hotel</t>
+  </si>
+  <si>
+    <t>h_hotel_service</t>
+  </si>
+  <si>
+    <t>h_room_type</t>
+  </si>
+  <si>
+    <t>nature_category</t>
+  </si>
+  <si>
+    <t>n_landscape</t>
+  </si>
+  <si>
+    <t>n_temperature</t>
+  </si>
+  <si>
+    <t>n_weather</t>
+  </si>
+  <si>
+    <t>normal_category</t>
+  </si>
+  <si>
+    <t>rc_company</t>
+  </si>
+  <si>
+    <t>rc_degree</t>
+  </si>
+  <si>
+    <t>rc_lang</t>
+  </si>
+  <si>
+    <t>persion_category</t>
+  </si>
+  <si>
+    <t>p_nation</t>
+  </si>
+  <si>
+    <t>p_person</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>pr_bank</t>
+  </si>
+  <si>
+    <t>pr_brand</t>
+  </si>
+  <si>
+    <t>pr_charge</t>
+  </si>
+  <si>
+    <t>pr_credit_card</t>
+  </si>
+  <si>
+    <t>pr_currency</t>
+  </si>
+  <si>
+    <t>pr_pay_type</t>
+  </si>
+  <si>
+    <t>pr_price</t>
+  </si>
+  <si>
+    <t>pr_stock</t>
+  </si>
+  <si>
+    <t>pr_store</t>
+  </si>
+  <si>
+    <t>sv_activity</t>
+  </si>
+  <si>
+    <t>sv_app</t>
+  </si>
+  <si>
+    <t>sv_communication</t>
+  </si>
+  <si>
+    <t>sv_insurance_company</t>
+  </si>
+  <si>
+    <t>sv_insurance_object</t>
+  </si>
+  <si>
+    <t>sv_project</t>
+  </si>
+  <si>
+    <t>sv_service</t>
+  </si>
+  <si>
+    <t>sv_visa</t>
+  </si>
+  <si>
+    <t>service_catgory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_category</t>
+  </si>
+  <si>
+    <t>kj_all</t>
+  </si>
+  <si>
+    <t>s_area</t>
+  </si>
+  <si>
+    <t>s_attractions</t>
+  </si>
+  <si>
+    <t>s_cities</t>
+  </si>
+  <si>
+    <t>s_country</t>
+  </si>
+  <si>
+    <t>s_place</t>
+  </si>
+  <si>
+    <t>s_position</t>
+  </si>
+  <si>
+    <t>time_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_festival</t>
+  </si>
+  <si>
+    <t>travel_category</t>
+  </si>
+  <si>
+    <t>tr_airport</t>
+  </si>
+  <si>
+    <t>tr_services</t>
+  </si>
+  <si>
+    <t>tr_traffic_card</t>
+  </si>
+  <si>
+    <t>tr_traffic_type</t>
+  </si>
+  <si>
+    <t>tr_travel_agency</t>
+  </si>
+  <si>
+    <t>tr_travel_type</t>
+  </si>
+  <si>
+    <t>tr_vehicle</t>
+  </si>
+  <si>
+    <t>food_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业/买卖相关</t>
+  </si>
+  <si>
+    <t>物品相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>衣服面料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床类型</t>
+  </si>
+  <si>
+    <t>床类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店配套娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然景观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>一般性公司名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍/民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典/活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用软件/网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险险种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>娱乐项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签证</t>
+  </si>
+  <si>
+    <t>所有空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区(省)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点/标致性地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>具体地点(区/市内街道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行的服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行公司/旅行社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行方式</t>
+  </si>
+  <si>
+    <t>旅行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具</t>
+  </si>
+  <si>
+    <t>交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海中国青年旅行社</t>
+  </si>
+  <si>
+    <t>咸肉粽</t>
+  </si>
+  <si>
+    <t>全聚德</t>
+  </si>
+  <si>
+    <t>120相机</t>
+  </si>
+  <si>
+    <t>羽绒服</t>
+  </si>
+  <si>
+    <t>棉</t>
+  </si>
+  <si>
+    <t>自拍杆</t>
+  </si>
+  <si>
+    <t>大床</t>
+  </si>
+  <si>
+    <t>ktv</t>
+  </si>
+  <si>
+    <t>汉庭酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>标准间</t>
+  </si>
+  <si>
+    <t>日出</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>东北风</t>
+  </si>
+  <si>
+    <t>欧格美铝业</t>
+  </si>
+  <si>
+    <t>最好</t>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷爷</t>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三井银行</t>
+  </si>
+  <si>
+    <t>可口可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自费</t>
+  </si>
+  <si>
+    <t>免费与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信银行银联标准信用卡</t>
+  </si>
+  <si>
+    <t>中非金融合作法郎</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>贵</t>
+  </si>
+  <si>
+    <t>新华富时中国A50指数</t>
+  </si>
+  <si>
+    <t>免税店</t>
+  </si>
+  <si>
+    <t>店庆</t>
+  </si>
+  <si>
+    <t>携程</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>三井住友</t>
+  </si>
+  <si>
+    <t>两全保险</t>
+  </si>
+  <si>
+    <t>云霄飞车</t>
+  </si>
+  <si>
+    <t>预定服务</t>
+  </si>
+  <si>
+    <t>绿卡</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>007岛</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>东城</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>元旦</t>
+  </si>
+  <si>
+    <t>七美机场</t>
+  </si>
+  <si>
+    <t>客房服务</t>
+  </si>
+  <si>
+    <t>jr7日票</t>
+  </si>
+  <si>
+    <t>直达</t>
+  </si>
+  <si>
+    <t>对应模型层槽位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>目的地</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>票券</t>
+  </si>
+  <si>
+    <t>出发地</t>
+  </si>
+  <si>
+    <t>店铺</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>航班</t>
+  </si>
+  <si>
+    <t>气温</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
+    <t>模型层槽位名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>衣服</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商品,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>地点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,景点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点
+物品
+价格
+商店
+位置
+特殊要求
+目的地点
+国家
+地区
+附近服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +1355,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +1432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +1478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -728,6 +1528,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1008,25 +1844,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="4" max="5" width="18.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="6" customWidth="1"/>
+    <col min="8" max="14" width="9" style="6"/>
+    <col min="15" max="15" width="14.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1039,8 +1878,9 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1053,8 +1893,9 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1067,768 +1908,1794 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="G14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>288</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="C23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G24" s="5"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G25" s="5"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="G27" s="5"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="G28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G29" s="5"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G30" s="5"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G31" s="5"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G32" s="5"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G33" s="5"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G34" s="5"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G35" s="5"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G36" s="5"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G37" s="5"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G38" s="5"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="3"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G39" s="5"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="3"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G40" s="5"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
-      <c r="B41" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="B41" s="13"/>
       <c r="C41" s="3"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B5:B29"/>
-    <mergeCell ref="B30:B40"/>
-    <mergeCell ref="A5:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="B5:B26"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="A5:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A1:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFDDD07-2B39-4D1F-8E12-C6228043D1A0}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
